--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1258748.655115973</v>
+        <v>-1260646.887220097</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>290.7613663845148</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>85.95098085256419</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>112.6396913280254</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>201.2541758897508</v>
+        <v>151.2725262699913</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>191.4963007607406</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>159.304172243322</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>54.65520119711156</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>53.41215225123319</v>
+        <v>150.7965934798257</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>6.837139712981789</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>76.48464164091926</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229322</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>45.21952718910648</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>27.37255160319307</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>185.8949910735412</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>22.71958750778575</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>96.71233187893839</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>79.36208393617315</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>15.74955790720909</v>
       </c>
       <c r="U22" t="n">
-        <v>162.2565632128942</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>23.54872654977475</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.12833712222993</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>268.8237507071505</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>4.248485524353316</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789518</v>
+        <v>80.78193823789589</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373733</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789518</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1317.778685247039</v>
+        <v>1074.547708327363</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.778685247039</v>
+        <v>1074.547708327363</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1074.547708327363</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>688.7594557291191</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2434.152430754045</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2434.152430754045</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2434.152430754045</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>2081.383775483931</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X2" t="n">
-        <v>1707.918017222851</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y2" t="n">
-        <v>1317.778685247039</v>
+        <v>1461.147548391485</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,25 +4413,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304.0493587096206</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C4" t="n">
-        <v>304.0493587096206</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D4" t="n">
-        <v>304.0493587096206</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>304.0493587096206</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>304.0493587096206</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>304.0493587096206</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
         <v>190.2718927217162</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>524.8419378531507</v>
+        <v>575.3284526205844</v>
       </c>
       <c r="T4" t="n">
-        <v>524.8419378531507</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="U4" t="n">
-        <v>524.8419378531507</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="V4" t="n">
-        <v>524.8419378531507</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="W4" t="n">
-        <v>524.8419378531507</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X4" t="n">
-        <v>524.8419378531507</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y4" t="n">
-        <v>304.0493587096206</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1738.858660051663</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C5" t="n">
-        <v>1369.896143111252</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>1011.630444504501</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>625.8421919062569</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>214.8562871166493</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X5" t="n">
-        <v>1738.858660051663</v>
+        <v>1928.871178043375</v>
       </c>
       <c r="Y5" t="n">
-        <v>1738.858660051663</v>
+        <v>1538.731846067564</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>672.9217102699579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>672.9217102699579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>672.9217102699579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>672.9217102699579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>672.9217102699579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>383.5045402329973</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>383.5045402329973</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.5045402329973</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2158.229459560338</v>
+        <v>2544.829299624459</v>
       </c>
       <c r="W8" t="n">
-        <v>2158.229459560338</v>
+        <v>2544.829299624459</v>
       </c>
       <c r="X8" t="n">
-        <v>1784.763701299258</v>
+        <v>2171.363541363379</v>
       </c>
       <c r="Y8" t="n">
-        <v>1394.624369323446</v>
+        <v>1781.224209387568</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>60.84918355064909</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>60.84918355064909</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>502.7251118619119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>502.7251118619119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>437.6964226305959</v>
+        <v>711.0729548808329</v>
       </c>
       <c r="C13" t="n">
-        <v>437.6964226305959</v>
+        <v>542.136771952926</v>
       </c>
       <c r="D13" t="n">
-        <v>437.6964226305959</v>
+        <v>392.0201325405902</v>
       </c>
       <c r="E13" t="n">
-        <v>289.7833290482027</v>
+        <v>244.1070389581971</v>
       </c>
       <c r="F13" t="n">
-        <v>142.8933815502924</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>142.8933815502924</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5233,16 +5233,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305959</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y13" t="n">
-        <v>437.6964226305959</v>
+        <v>892.7214197110726</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>776.3630235686835</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>486.9458535317228</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>486.9458535317228</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="Y16" t="n">
-        <v>266.1532743881928</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5595,22 +5595,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864553</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.2953582963253</v>
+        <v>510.7324460062429</v>
       </c>
       <c r="C19" t="n">
-        <v>640.3591753684184</v>
+        <v>341.796263078336</v>
       </c>
       <c r="D19" t="n">
-        <v>640.3591753684184</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>492.4460817860253</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>345.5561342881149</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>177.3808126079355</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W19" t="n">
-        <v>809.2953582963253</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X19" t="n">
-        <v>809.2953582963253</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y19" t="n">
-        <v>809.2953582963253</v>
+        <v>692.3809108364826</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,67 +5735,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>732.6596981028219</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C22" t="n">
-        <v>563.7235151749151</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D22" t="n">
-        <v>563.7235151749151</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1483.007626207187</v>
       </c>
       <c r="U22" t="n">
-        <v>1135.100742076592</v>
+        <v>1483.007626207187</v>
       </c>
       <c r="V22" t="n">
-        <v>1135.100742076592</v>
+        <v>1483.007626207187</v>
       </c>
       <c r="W22" t="n">
-        <v>1135.100742076592</v>
+        <v>1193.590456170226</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.100742076592</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="Y22" t="n">
-        <v>914.3081629330617</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>846.9127704725952</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.3337308726216</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>121.0036839348058</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>121.0036839348058</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>496.665036439558</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X25" t="n">
-        <v>268.6754855415407</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.3337308726216</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6266,10 +6266,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2013.406634128704</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2292.946699347401</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2497.96918012961</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
         <v>265.3924131404652</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1003.591713218973</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V28" t="n">
-        <v>1003.591713218973</v>
+        <v>870.6357136032432</v>
       </c>
       <c r="W28" t="n">
-        <v>714.1745431820127</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="X28" t="n">
-        <v>486.1849922839954</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="29">
@@ -6461,7 +6461,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514085</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F31" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6625,7 +6625,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6725,10 +6725,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6780,22 +6780,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -6935,28 +6935,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7075,10 +7075,10 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7090,10 +7090,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7199,10 +7199,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7260,19 +7260,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
         <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7357,7 +7357,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7406,7 +7406,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7433,28 +7433,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M42" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2361.490124716568</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719082</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504743</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,16 +9243,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>199.7396287231157</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>5.100663089360012</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>38.86002301949951</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>297.3877236703352</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10428,28 +10428,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>73.64859338270696</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>242.9997743936049</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10908,22 +10908,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>93.88676507992579</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298383</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
-        <v>165.9802687929764</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,28 +11376,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>62.91120742583786</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>21.70596723604413</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>10.89136306026811</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>103.6943011784296</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>191.2121017489017</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>66.24265225028677</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>202.9900678812514</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>51.90314113927397</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>69.55174443136298</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>205.7980031511802</v>
       </c>
       <c r="U22" t="n">
-        <v>123.9807891856832</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8852360967944</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>197.4563162298649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>17.41360169142689</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>247.8891577994747</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.984279490192421e-13</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>2.984279490192421e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26323,16 +26323,16 @@
         <v>136860.1709081982</v>
       </c>
       <c r="F2" t="n">
-        <v>136860.1709081981</v>
+        <v>136860.1709081982</v>
       </c>
       <c r="G2" t="n">
         <v>136860.1709081981</v>
       </c>
       <c r="H2" t="n">
+        <v>136860.1709081981</v>
+      </c>
+      <c r="I2" t="n">
         <v>136860.1709081982</v>
-      </c>
-      <c r="I2" t="n">
-        <v>136860.1709081981</v>
       </c>
       <c r="J2" t="n">
         <v>136860.1709081981</v>
@@ -26344,16 +26344,16 @@
         <v>143682.3097262493</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262494</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262493</v>
+        <v>143682.3097262494</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262494</v>
+        <v>143682.3097262495</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371252</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161410.6210996773</v>
+        <v>161410.6210996772</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26427,19 +26427,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
         <v>44593.39482819119</v>
@@ -26454,7 +26454,7 @@
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819114</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26479,19 +26479,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-691849.8303067866</v>
+        <v>-691868.3240447209</v>
       </c>
       <c r="C6" t="n">
-        <v>-104809.6361236842</v>
+        <v>-104809.6361236841</v>
       </c>
       <c r="D6" t="n">
         <v>-104809.6361236842</v>
       </c>
       <c r="E6" t="n">
-        <v>-502461.7991042853</v>
+        <v>-502559.2582302574</v>
       </c>
       <c r="F6" t="n">
-        <v>22698.23737261078</v>
+        <v>22600.77824663861</v>
       </c>
       <c r="G6" t="n">
-        <v>22698.23737261078</v>
+        <v>22600.77824663864</v>
       </c>
       <c r="H6" t="n">
-        <v>22698.23737261083</v>
+        <v>22600.77824663863</v>
       </c>
       <c r="I6" t="n">
-        <v>22698.23737261081</v>
+        <v>22600.77824663866</v>
       </c>
       <c r="J6" t="n">
-        <v>-153724.9818199823</v>
+        <v>-153822.4409459543</v>
       </c>
       <c r="K6" t="n">
-        <v>-53131.70302567982</v>
+        <v>-53131.70302567987</v>
       </c>
       <c r="L6" t="n">
-        <v>1373.809078032704</v>
+        <v>1373.809078032689</v>
       </c>
       <c r="M6" t="n">
-        <v>-133427.2061558041</v>
+        <v>-133427.2061558043</v>
       </c>
       <c r="N6" t="n">
-        <v>1373.809078032762</v>
+        <v>1373.809078032806</v>
       </c>
       <c r="O6" t="n">
-        <v>1373.809078033009</v>
+        <v>1373.809078032922</v>
       </c>
       <c r="P6" t="n">
-        <v>-53131.70302567972</v>
+        <v>-53131.70302567964</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,25 +26747,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26826,7 +26826,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>116.1146793571966</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>130.4973395050936</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>124.727995410525</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>43.5311975137698</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>60.87301268002756</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>191.23754090274</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>254.479997777473</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>54.3902011122461</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>92.00999078304631</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>274.3401062189017</v>
+        <v>176.9556649903092</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>138.5839083099495</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>209.7972326010585</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="15">
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,10 +35504,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>532.9342021211286</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -35981,7 +35981,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>483.6693559063411</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>315.5250401398262</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>126.8730558045736</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>630.582297068348</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>406.8431667807198</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>450.0931893251296</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>404.3111421303921</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37871,13 +37871,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
-        <v>253.9933015780506</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686865</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>396.1057808238508</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
